--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1317728.843992373</v>
+        <v>1295366.812581717</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332966</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3522967.675855585</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10189943.19389979</v>
+        <v>11248921.90017855</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>22.31986891989325</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>300.8915849827644</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>39.01104463634053</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>111.9273983130129</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,22 +1062,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>60.38235645081264</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>257.0152846411281</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>150.962075125797</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.2137407186092</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>52.23166108617973</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>71.82844315075262</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>68.33206842695398</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938904</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664346</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958671</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183517</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>89.31167754421176</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>22.79825004194808</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0.478775206146895</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>160.0006879278783</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>131.6255343941017</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>50.75136046586785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>216.4586446023289</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>264.7971638227611</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>88.23851788996292</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>43.66907681429109</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>215.0546805228902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>118.7547293727781</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>5.562624396425115</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>162.9688692947906</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>226.8992958435918</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>89.09646007723592</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>97.51043302167577</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1369.426717132083</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C2" t="n">
-        <v>1369.426717132083</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D2" t="n">
-        <v>1011.161018525332</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2443.397591721579</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.397591721579</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.334704378009</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.566049107894</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.566049107894</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.426717132083</v>
+        <v>632.3182666762915</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,31 +4427,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1635.28076286629</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1249.492510268045</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>838.5066054784379</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>420.5427973766248</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>93.34807741262762</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2584.09111292427</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2330.329327562361</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1999.266440218791</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1646.497784948677</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1273.032026687597</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>882.8926947117852</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>517.0200655508536</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484594</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.558044544182</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.292345937431</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.504093339187</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>731.5181885495797</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>313.5543804477666</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2544.66214644671</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2544.66214644671</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2290.900361084802</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1959.837473741231</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1607.068818471117</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>1233.603060210037</v>
       </c>
     </row>
     <row r="9">
@@ -4898,7 +4898,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1597.994168061634</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>1229.031651121223</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>870.7659525144722</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>484.9776999162281</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>73.9917951266205</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>73.9917951266205</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403564</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>3484.789894598736</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>3432.030640976333</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3100.967753632762</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>2748.199098362647</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>2374.733340101568</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>1984.594008125756</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914995</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835159</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0794512893252</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.440991155443</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1253.562877620961</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1452.219619273625</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026347</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507183</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>892.2780117557232</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C13" t="n">
-        <v>723.3418288278164</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D13" t="n">
-        <v>573.2251894154806</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E13" t="n">
-        <v>425.3120958330875</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>425.3120958330875</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>352.7581128525293</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>198.5034697522943</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585963</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1073.926476585963</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1073.926476585963</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1073.926476585963</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>1073.926476585963</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y13" t="n">
-        <v>1073.926476585963</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1786.709430001881</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>1417.74691306147</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1059.481214454719</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>673.692961856475</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7070570668674</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7070570668674</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6847657265099</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>262.631694140357</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604022</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406601</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389912</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449759</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216836</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.41379555613</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.58975633103</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.58975633103</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827858</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>3543.374718827858</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>3289.683015573009</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3289.683015573009</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>2936.914360302895</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>2563.448602041815</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2173.309270066003</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266206</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>403.4201994324303</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>540.649797448124</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1181.195146915228</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273624</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026346</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.33685256765</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.9917951266206</v>
+        <v>765.2096374174363</v>
       </c>
       <c r="C16" t="n">
-        <v>73.9917951266206</v>
+        <v>596.2734544895294</v>
       </c>
       <c r="D16" t="n">
-        <v>73.9917951266206</v>
+        <v>596.2734544895294</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9917951266206</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266206</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266206</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266206</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266206</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222303</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230485</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422863</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783905</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669892</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165605</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>866.4861918383699</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>640.8569951507349</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>351.7048187284146</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>97.02033052252776</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>73.9917951266206</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X16" t="n">
-        <v>73.9917951266206</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.9917951266206</v>
+        <v>765.2096374174363</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.7185717878251</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C19" t="n">
-        <v>674.7185717878251</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>674.7185717878251</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878251</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X19" t="n">
-        <v>674.7185717878251</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.7185717878251</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.8045051785809</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C22" t="n">
-        <v>358.8683222506741</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>1447.652270087329</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W22" t="n">
-        <v>1158.235100050368</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X22" t="n">
-        <v>930.2455491523508</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="Y22" t="n">
-        <v>709.4529700088207</v>
+        <v>844.0280401273993</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1280.271174999994</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>991.1425362135525</v>
       </c>
       <c r="V25" t="n">
-        <v>1164.055751909234</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="W25" t="n">
-        <v>896.5838692599799</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>355.2830904386603</v>
+        <v>755.183133481126</v>
       </c>
       <c r="C28" t="n">
-        <v>186.3469075107534</v>
+        <v>586.2469505532191</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>436.1303111408834</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>288.2172175584902</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>141.3272700605799</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104475</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X28" t="n">
-        <v>757.7241344124302</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y28" t="n">
-        <v>536.9315552689001</v>
+        <v>755.183133481126</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,43 +6451,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2361.490124716568</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4241.186579017402</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>4072.250396089494</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3774.220663094765</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>4860.854573014292</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4643.627622991171</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>4422.835043847641</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,37 +6679,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6891,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>1498.916270557902</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>1322.84934122136</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>662.0910440466404</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1133.156678913841</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>843.7395088768801</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>843.7395088768801</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7395088768801</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.927113122792</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
         <v>265.3924131404652</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>874.927113122792</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W43" t="n">
-        <v>874.927113122792</v>
+        <v>1045.939647424588</v>
       </c>
       <c r="X43" t="n">
-        <v>874.927113122792</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="Y43" t="n">
-        <v>874.927113122792</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>990.7828679390639</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C46" t="n">
-        <v>821.846685011157</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>671.7300455988212</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>523.8169520164281</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1400.420883667321</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1400.420883667321</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1400.420883667321</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1400.420883667321</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>1400.420883667321</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W46" t="n">
-        <v>1400.420883667321</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X46" t="n">
-        <v>1172.431332769303</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y46" t="n">
-        <v>1172.431332769303</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>48.10560617264079</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928483</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>73.09871788457676</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>176.7176547498453</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10594,13 +10594,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22558,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22600,10 +22600,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>194.1284514377645</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>104.5209220446449</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>86.05160619575653</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>66.90748812322909</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>198.9231251361209</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>30.90698584635156</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>95.09233340381782</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>246.7088156482616</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>57.12228510235741</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176906</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>263.7247482946429</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>145.9551874404223</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>65.70896746115884</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>48.20644578783561</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24183,19 +24183,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>201.3862828579601</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5.088916456060332</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>21.72583451382991</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>60.37695512824943</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>122.8244916490865</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>10.654974866147</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>26.93116351641912</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>48.49209172584969</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>192.3581855871781</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>71.18267187568719</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.277951803837226</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>59.6237024929992</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>90.73552010470138</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>12.45391938211704</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>720539.9926437237</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>720539.9926437238</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>720539.9926437238</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834666.8331522862</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834666.8331522865</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667966</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667964</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173336</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>371509.2212626557</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
-        <v>371509.2212626561</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="M2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="N2" t="n">
         <v>430131.9657114798</v>
       </c>
-      <c r="N2" t="n">
-        <v>430131.9657114797</v>
-      </c>
       <c r="O2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="P2" t="n">
         <v>430131.9657114798</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188427</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>1.077222123058164e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659093</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965292</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>3.062947371290648e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991094</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="C4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>24740.78594361633</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>24740.78594361632</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26444,7 +26444,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360147</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381845.9233655854</v>
+        <v>-386886.8516391224</v>
       </c>
       <c r="C6" t="n">
-        <v>208121.955848959</v>
+        <v>203081.0275754221</v>
       </c>
       <c r="D6" t="n">
-        <v>208121.955848959</v>
+        <v>203081.0275754221</v>
       </c>
       <c r="E6" t="n">
-        <v>29450.12341659529</v>
+        <v>-210164.5955607252</v>
       </c>
       <c r="F6" t="n">
-        <v>277596.8920354372</v>
+        <v>314995.4409161706</v>
       </c>
       <c r="G6" t="n">
-        <v>52207.14290998313</v>
+        <v>314995.4409161705</v>
       </c>
       <c r="H6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161706</v>
       </c>
       <c r="I6" t="n">
-        <v>315970.0321758925</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="J6" t="n">
-        <v>139546.8129832995</v>
+        <v>138572.2217235779</v>
       </c>
       <c r="K6" t="n">
-        <v>315970.0321758923</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="L6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="M6" t="n">
-        <v>253516.9762862395</v>
+        <v>180194.4256823336</v>
       </c>
       <c r="N6" t="n">
-        <v>315970.032175892</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="O6" t="n">
-        <v>246105.1473259813</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="P6" t="n">
-        <v>315970.0321758925</v>
+        <v>314995.4409161707</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380645</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209769</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160357</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708156</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708156</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708156</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>85.34635367328923</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>112.9202716085207</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>23.45363768317449</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>118.9239026052188</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712522</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671568</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080784</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308304</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784123</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937806</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198248</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055156</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651553</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937399</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779018</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712527</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074821</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359666</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822515</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426697</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457574</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411495</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810512</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916533</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840365</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>12.328626159853</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182837</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847382</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070427</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512819</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842451</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>332.005087490065</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947074</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671571</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607456</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080797</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784624</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308312</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888313</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207007</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784128</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490372</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.338107579024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889952</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676925</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441089</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714136</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720919</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104774</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937813</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685359</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>4.57268470752279</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584802</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>332.755963945262</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>229.4160469348671</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>200.6633754067311</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105729</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391274</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>407.542538404086</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517159</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730419</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513599</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233101</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588828</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312126</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452622</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>138.6157555714078</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122267</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>273.7620932913084</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269925</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>428.250271192764</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105732</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531411</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493113</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295331</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233375</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854533</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369854</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353358</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1295366.812581717</v>
+        <v>1313482.526123279</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>3522967.675855583</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11248921.90017855</v>
+        <v>10189943.19389979</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.1699826279566</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>300.8915849827644</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>39.01104463634053</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>125.710253160901</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.46389722690856</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>139.1551037509703</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>150.962075125797</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V10" t="n">
-        <v>133.2137407186092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>257.155833386703</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>145.8718339342025</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>164.9208536762621</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>89.31167754421176</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>71.11159396279736</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>152.9037918253696</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>160.0006879278783</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>131.6255343941017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>105.0903281190973</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>216.4586446023289</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>28.96381508363917</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>43.66907681429109</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>29.3220157029459</v>
       </c>
       <c r="F34" t="n">
-        <v>118.4898845065121</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>215.0546805228902</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>13.82554877417798</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>226.8992958435918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.09646007723592</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>122.65197883716</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3182666762915</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762915</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>783.1896006574873</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>365.2257925556742</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>632.3182666762915</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1993.54646147304</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C5" t="n">
-        <v>1993.54646147304</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D5" t="n">
-        <v>1635.28076286629</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E5" t="n">
-        <v>1249.492510268045</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F5" t="n">
-        <v>838.5066054784379</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>420.5427973766248</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>93.34807741262762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2007.899972821435</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>1634.434214560355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.54646147304</v>
+        <v>1244.294882584544</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,46 +4649,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>713.5189870075369</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>713.5189870075369</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2544.66214644671</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2544.66214644671</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2290.900361084802</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1959.837473741231</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1607.068818471117</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1233.603060210037</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.603060210037</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4889,16 +4889,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4968,43 +4968,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>564.1527310008552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>1884.677716156683</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>1515.715199216271</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1157.449500609521</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>771.6612480112763</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>771.6612480112763</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>262.6316941403568</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>666.098807160402</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449759</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216836</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>3328.574857095569</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>3328.574857095569</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>2997.511969751999</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>2644.743314481884</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>2271.277556220804</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2271.277556220804</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>403.4201994324303</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>907.7817392985485</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1087.279075653153</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1760.484767905935</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2309.920776658658</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201016</v>
+        <v>411.5348230591442</v>
       </c>
       <c r="C13" t="n">
-        <v>213.9110074201016</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="D13" t="n">
-        <v>213.9110074201016</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>848.2972798983295</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>848.2972798983295</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>848.2972798983295</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>558.880109861369</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201016</v>
+        <v>558.880109861369</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201016</v>
+        <v>558.880109861369</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>1916.217283289125</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>1547.254766348713</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1188.989067741963</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>803.2008151437187</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>262.6316941403567</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>666.0988071604019</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449758</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216835</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556129</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331029</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>3543.374718827857</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>3543.374718827857</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>3376.787997942744</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3045.725110599173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>2692.956455329059</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>2692.956455329059</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2302.817123353247</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>192.6510469835162</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>522.0794512893258</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3090493050195</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1299.854398772124</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1973.060091024906</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2132.572403693667</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.2096374174363</v>
+        <v>712.6794136572894</v>
       </c>
       <c r="C16" t="n">
-        <v>596.2734544895294</v>
+        <v>543.7432307293825</v>
       </c>
       <c r="D16" t="n">
-        <v>596.2734544895294</v>
+        <v>543.7432307293825</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>543.7432307293825</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>228.2464382268555</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1002.09658369425</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1002.09658369425</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>1002.09658369425</v>
       </c>
       <c r="W16" t="n">
-        <v>986.0022165609664</v>
+        <v>712.6794136572894</v>
       </c>
       <c r="X16" t="n">
-        <v>986.0022165609664</v>
+        <v>712.6794136572894</v>
       </c>
       <c r="Y16" t="n">
-        <v>765.2096374174363</v>
+        <v>712.6794136572894</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,37 +5527,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="C19" t="n">
         <v>542.1367719529251</v>
@@ -5661,34 +5661,34 @@
         <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5706,19 +5706,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W19" t="n">
-        <v>1275.130855347408</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X19" t="n">
-        <v>1113.513998854602</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.7214197110717</v>
+        <v>696.5850465240055</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,22 +5940,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V22" t="n">
-        <v>844.0280401273993</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W22" t="n">
-        <v>844.0280401273993</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X22" t="n">
-        <v>844.0280401273993</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y22" t="n">
-        <v>844.0280401273993</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
         <v>265.3924131404652</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1280.271174999994</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>991.1425362135525</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="V25" t="n">
-        <v>736.4580480076656</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="W25" t="n">
-        <v>447.040877970705</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="X25" t="n">
-        <v>447.040877970705</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.040877970705</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="26">
@@ -6208,43 +6208,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>755.183133481126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>586.2469505532191</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>436.1303111408834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>288.2172175584902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>141.3272700605799</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>755.183133481126</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>755.183133481126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>755.183133481126</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,7 +6487,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
@@ -6709,7 +6709,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>216.9038434870658</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C34" t="n">
-        <v>216.9038434870658</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D34" t="n">
-        <v>216.9038434870658</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E34" t="n">
-        <v>216.9038434870658</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.9038434870658</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,19 +6949,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E40" t="n">
         <v>412.2823606383756</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1281.689320534781</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1281.689320534781</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W40" t="n">
-        <v>1281.689320534781</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X40" t="n">
-        <v>1281.689320534781</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y40" t="n">
-        <v>1060.896741391251</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1045.939647424588</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>817.9500965265709</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.1575173830407</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7742,13 +7742,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861031</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>731.0291971045608</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>503.0396462065435</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>503.0396462065435</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.233205181928483</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>7.083830627501456</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>186.2236012992096</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978339</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15.75279013640056</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>51.04847948014699</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,16 +22837,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>223.530715556512</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>243.5787379125103</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>155.7610705592338</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>33.96014624773477</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>30.90698584635156</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>86.23393254603857</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>57.12228510235741</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>152.2613107579613</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>14.3430292732582</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>65.70896746115884</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.20644578783561</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,13 +24180,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>116.457232939292</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>5.088916456060332</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>257.2735373149382</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>122.8244916490865</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="F34" t="n">
-        <v>26.93116351641912</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>71.18267187568719</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>204.7591045779168</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>59.6237024929992</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.73552010470138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>22.76906918577127</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1011823.852443046</v>
+        <v>720539.9926437236</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1011823.852443046</v>
+        <v>720539.9926437237</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1011823.852443046</v>
+        <v>720539.9926437237</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959856.5572667965</v>
+        <v>834666.8331522864</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959856.5572667965</v>
+        <v>834666.8331522865</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667966</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667966</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667966</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
+        <v>371509.2212626562</v>
+      </c>
+      <c r="F2" t="n">
+        <v>371509.2212626562</v>
+      </c>
+      <c r="G2" t="n">
+        <v>430131.9657114794</v>
+      </c>
+      <c r="H2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="F2" t="n">
-        <v>430131.9657114796</v>
-      </c>
-      <c r="G2" t="n">
-        <v>430131.9657114795</v>
-      </c>
-      <c r="H2" t="n">
-        <v>430131.9657114796</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114798</v>
@@ -26343,7 +26343,7 @@
         <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
         <v>430131.9657114797</v>
@@ -26355,7 +26355,7 @@
         <v>430131.9657114798</v>
       </c>
       <c r="P2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114799</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>248146.7686188439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659091</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>62453.05588965328</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991094</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165632.8677865244</v>
+        <v>27086.83710496503</v>
       </c>
       <c r="C4" t="n">
-        <v>165632.8677865244</v>
+        <v>27086.83710496503</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>24740.78594361632</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26444,13 +26444,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>69171.54328360147</v>
+      </c>
+      <c r="F5" t="n">
+        <v>69171.54328360144</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26496,13 +26496,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-386886.8516391224</v>
+        <v>-382452.7647401675</v>
       </c>
       <c r="C6" t="n">
-        <v>203081.0275754221</v>
+        <v>207515.114474377</v>
       </c>
       <c r="D6" t="n">
-        <v>203081.0275754221</v>
+        <v>207515.114474377</v>
       </c>
       <c r="E6" t="n">
-        <v>-210164.5955607252</v>
+        <v>29086.19727040046</v>
       </c>
       <c r="F6" t="n">
-        <v>314995.4409161706</v>
+        <v>277232.9658892443</v>
       </c>
       <c r="G6" t="n">
-        <v>314995.4409161705</v>
+        <v>52109.68378401083</v>
       </c>
       <c r="H6" t="n">
-        <v>314995.4409161706</v>
+        <v>315872.57304992</v>
       </c>
       <c r="I6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="J6" t="n">
-        <v>138572.2217235779</v>
+        <v>139449.3538573274</v>
       </c>
       <c r="K6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="L6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="M6" t="n">
-        <v>180194.4256823336</v>
+        <v>253419.5171602669</v>
       </c>
       <c r="N6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="O6" t="n">
-        <v>314995.4409161708</v>
+        <v>246007.6882000093</v>
       </c>
       <c r="P6" t="n">
-        <v>314995.4409161707</v>
+        <v>315872.5730499204</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>593.4761003380645</v>
+      </c>
+      <c r="F3" t="n">
+        <v>593.4761003380645</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827575</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>215.7324361209779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160355</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708156</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>250.6101663282021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708156</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708156</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>85.34635367328923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>112.9202716085207</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.65885272800574</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>23.45363768317449</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>118.9239026052188</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>332.7559639452622</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>509.4561008748669</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>680.0057497502852</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>554.9858674269925</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>116.8713331803283</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>332.7559639452622</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>647.0155045122267</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>680.0057497502852</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>296.0111038520365</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958075</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36451,10 +36451,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -38022,7 +38022,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38110,16 +38110,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>560.035498861915</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
